--- a/data/f09.xlsx
+++ b/data/f09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8555"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这朵</t>
     </r>
     <r>
@@ -137,6 +144,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>端午</t>
     </r>
     <r>
@@ -256,6 +270,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我家离学校很</t>
     </r>
     <r>
@@ -329,13 +350,20 @@
     <t>guài</t>
   </si>
   <si>
-    <t>Kỳ lạ</t>
+    <t>Quái lạ</t>
   </si>
   <si>
     <t>TRUNG BÌNH</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他的行为很</t>
     </r>
     <r>
@@ -413,6 +441,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -490,6 +525,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>太阳的</t>
     </r>
     <r>
@@ -567,6 +609,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -644,6 +693,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -721,6 +777,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -798,6 +861,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>象</t>
     </r>
     <r>
@@ -864,6 +935,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他的</t>
     </r>
     <r>
@@ -941,6 +1019,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他用力</t>
     </r>
     <r>
@@ -1014,7 +1099,7 @@
     <t>shǐ</t>
   </si>
   <si>
-    <t>Khiến cho</t>
+    <t>Làm cho</t>
   </si>
   <si>
     <r>
@@ -1071,7 +1156,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>khiến cho</t>
+      <t>làm cho</t>
     </r>
     <r>
       <rPr>
@@ -1098,6 +1183,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我有</t>
     </r>
     <r>
@@ -1175,6 +1267,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你想</t>
     </r>
     <r>
@@ -1252,6 +1351,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>今天是三</t>
     </r>
     <r>
@@ -1329,6 +1435,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一个医疗</t>
     </r>
     <r>
@@ -1406,6 +1519,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>警察正在</t>
     </r>
     <r>
@@ -1483,6 +1603,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个工厂</t>
     </r>
     <r>
@@ -1560,6 +1687,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你不想去就别去</t>
     </r>
     <r>
@@ -1637,6 +1771,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -1714,6 +1855,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我愿意</t>
     </r>
     <r>
@@ -1791,6 +1939,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -1868,6 +2023,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我喜欢去</t>
     </r>
     <r>
@@ -1945,6 +2107,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他总是友好地</t>
     </r>
     <r>
@@ -2022,6 +2191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -2099,6 +2275,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>除了他，大家都到了。(</t>
     </r>
     <r>
@@ -2155,6 +2338,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -2232,6 +2422,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -2309,6 +2506,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个</t>
     </r>
     <r>
@@ -2386,6 +2590,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>秦始皇是中国第一位</t>
     </r>
     <r>
@@ -2463,6 +2674,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我有一个</t>
     </r>
     <r>
@@ -2540,6 +2758,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -2617,6 +2842,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -2694,6 +2926,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一家大</t>
     </r>
     <r>
@@ -2771,6 +3010,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他很</t>
     </r>
     <r>
@@ -2848,6 +3094,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是</t>
     </r>
     <r>
@@ -2925,6 +3178,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们来</t>
     </r>
     <r>
@@ -3002,6 +3262,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>鸟儿在天空中</t>
     </r>
     <r>
@@ -3079,6 +3346,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他是</t>
     </r>
     <r>
@@ -3156,6 +3430,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -3233,6 +3514,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们需要仔细</t>
     </r>
     <r>
@@ -3310,6 +3598,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我爱我的</t>
     </r>
     <r>
@@ -3387,6 +3682,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个房间是</t>
     </r>
     <r>
@@ -3464,6 +3766,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他在</t>
     </r>
     <r>
@@ -3541,6 +3850,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他每天</t>
     </r>
     <r>
@@ -3597,6 +3913,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>阿</t>
     </r>
     <r>
@@ -3660,6 +3984,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我会</t>
     </r>
     <r>
@@ -3734,6 +4065,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -3811,6 +4149,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他的错误</t>
     </r>
     <r>
@@ -4497,7 +4842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4507,9 +4852,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4836,8 +5178,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5122,7 +5464,7 @@
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5802,7 +6144,7 @@
       <c r="E48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>196</v>
       </c>
     </row>

--- a/data/f09.xlsx
+++ b/data/f09.xlsx
@@ -1103,6 +1103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这件事</t>
     </r>
     <r>
@@ -1851,7 +1858,7 @@
     <t>zhù</t>
   </si>
   <si>
-    <t>Giúp đỡ</t>
+    <t>Trợ giúp</t>
   </si>
   <si>
     <r>
@@ -5178,8 +5185,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
